--- a/Especificação da escolha dos dados.xlsx
+++ b/Especificação da escolha dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\UFPI\TCC - JUAN DOUDEMENT\TRABALHO EM R\IF DATA\IF DATA\Juan_Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF4B89B-65B2-4E6E-BEB7-F2833839F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5783FC3C-4326-4BBF-809D-6AADBA21584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2233FA70-D420-42EA-B05B-1B84E15043C6}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="C1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
